--- a/record.xlsx
+++ b/record.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="13530"/>
+    <workbookView windowWidth="22665" windowHeight="13530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Components Required" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32&amp;ESP8266 Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="Online Resources" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ESP32&amp;ESP8266 Comparison'!$N$6:$O$6</definedName>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Main Components with Price for 2 prototypes</t>
   </si>
@@ -62,9 +64,27 @@
     <t>IC 74LS47</t>
   </si>
   <si>
+    <t>Proposed Layout</t>
+  </si>
+  <si>
+    <t>Usable pins on ESP32 and ESP8266 - A Comparison</t>
+  </si>
+  <si>
+    <t>Available GPIOs</t>
+  </si>
+  <si>
+    <t>Best Suitable GPIOs</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
     <t>Pins required</t>
   </si>
   <si>
+    <t>ESP8266+Atmega</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -74,46 +94,82 @@
     <t>Pins Required</t>
   </si>
   <si>
+    <t>Using Atmega 328P with ESP8266</t>
+  </si>
+  <si>
     <t>Digital Pins</t>
   </si>
   <si>
     <t>Order Selection Buttons</t>
   </si>
   <si>
+    <t>Analog Pins</t>
+  </si>
+  <si>
     <t>Order Config Buttons</t>
   </si>
   <si>
     <t>1 min</t>
   </si>
   <si>
-    <t>On/Off Buttons</t>
-  </si>
-  <si>
     <t>Page Turn Detection</t>
   </si>
   <si>
-    <t>Analog Pins</t>
-  </si>
-  <si>
     <t>4 min</t>
   </si>
   <si>
-    <t>More than 22</t>
-  </si>
-  <si>
-    <t>Proposed Layout</t>
-  </si>
-  <si>
-    <t>Usable pins on ESP32 and ESP8266 - A Comparison</t>
-  </si>
-  <si>
-    <t>Available GPIOs</t>
-  </si>
-  <si>
-    <t>Best Suitable GPIOs</t>
-  </si>
-  <si>
-    <t>ESP32</t>
+    <t>More than 21</t>
+  </si>
+  <si>
+    <t>ATmega328P-PU</t>
+  </si>
+  <si>
+    <t>16MHz Clock Crystal</t>
+  </si>
+  <si>
+    <t>IC7805</t>
+  </si>
+  <si>
+    <t>ESP 01</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Getting Started with ESP8266 and Arduino: ESP8266 Arduino Interface</t>
+  </si>
+  <si>
+    <t>https://www.electronicshub.org/esp8266-arduino-interface/</t>
+  </si>
+  <si>
+    <t>How to Connect ESP8266 to WiFi | A Beginner’s Guide</t>
+  </si>
+  <si>
+    <t>https://www.electronicshub.org/connect-esp8266-to-wifi/</t>
+  </si>
+  <si>
+    <t>How to Send Data from Arduino to Webpage using WiFi</t>
+  </si>
+  <si>
+    <t>https://circuitdigest.com/microcontroller-projects/sending-arduino-data-to-webpage</t>
+  </si>
+  <si>
+    <t>ESP8266 module comparison</t>
+  </si>
+  <si>
+    <t>https://blog.squix.org/2015/03/esp8266-module-comparison-esp-01-esp-05.html</t>
+  </si>
+  <si>
+    <t>Interfacing 16X2 LCD with ESP32 using I2C</t>
+  </si>
+  <si>
+    <t>https://circuitdigest.com/microcontroller-projects/interfacing-16x2-lcd-with-esp32-using-i2c</t>
   </si>
 </sst>
 </file>
@@ -121,17 +177,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +210,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +218,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +226,67 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,21 +294,60 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Garamond"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -185,131 +355,38 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Garamond"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Garamond"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Garamond"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Garamond"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Garamond"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -325,43 +402,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,67 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,53 +582,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="38">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -817,150 +974,50 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="0"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -979,74 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1061,290 +1050,394 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1423,8 +1516,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>168910</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,8 +1534,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7454900" y="354965"/>
-          <a:ext cx="4692015" cy="6437630"/>
+          <a:off x="7454900" y="374015"/>
+          <a:ext cx="4692015" cy="6447155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,8 +1564,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1490,7 +1583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2141855" y="363855"/>
+          <a:off x="2141855" y="421005"/>
           <a:ext cx="5918200" cy="3566795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1510,8 +1603,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>467360</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,7 +1622,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2153285" y="4202430"/>
+          <a:off x="2153285" y="4516755"/>
           <a:ext cx="5886450" cy="3876675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1543,64 +1636,62 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="BlackTie">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="BlackTie">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="202020"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="46464A"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E3DCCF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6F6F74"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="A7B789"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="BEAE98"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="92A9B9"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="9C8265"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="8D6974"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="67AABF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="B1B5AB"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="BlackTie">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Garamond"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Grek" typeface="Constantia"/>
-        <a:font script="Cyrl" typeface="Constantia"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
-        <a:font script="Hang" typeface="궁서"/>
-        <a:font script="Hans" typeface="仿宋"/>
-        <a:font script="Hant" typeface="標楷體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -1622,18 +1713,16 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Garamond"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Grek" typeface="Constantia"/>
-        <a:font script="Cyrl" typeface="Constantia"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
-        <a:font script="Hang" typeface="궁서"/>
-        <a:font script="Hans" typeface="仿宋"/>
-        <a:font script="Hant" typeface="標楷體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1654,12 +1743,12 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="BlackTie">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1668,189 +1757,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:satMod val="220000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="30000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="61000"/>
-                <a:satMod val="220000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="45000">
-              <a:schemeClr val="phClr">
-                <a:tint val="66000"/>
-                <a:satMod val="240000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="55000">
-              <a:schemeClr val="phClr">
-                <a:tint val="66000"/>
-                <a:satMod val="220000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="73000">
-              <a:schemeClr val="phClr">
-                <a:tint val="61000"/>
-                <a:satMod val="220000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:satMod val="220000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="950000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="110000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="30000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="90000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="45000">
-              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="128000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="55000">
-              <a:schemeClr val="phClr">
-                <a:shade val="100000"/>
-                <a:satMod val="128000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="73000">
-              <a:schemeClr val="phClr">
-                <a:shade val="90000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="110000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="950000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="53975" cap="flat" cmpd="dbl" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="40000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="41909" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="40000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="38100" dir="5400000" algn="br" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="57000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="twoPt" dir="t">
-              <a:rot lat="0" lon="0" rev="1800000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="44450" h="31750" prst="coolSlant"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:duotone>
-              <a:schemeClr val="phClr">
-                <a:tint val="95000"/>
-              </a:schemeClr>
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:duotone>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1864,294 +1895,185 @@
   <sheetPr/>
   <dimension ref="A4:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="29.0761904761905" customWidth="1"/>
-    <col min="3" max="3" width="16.8761904761905" customWidth="1"/>
-    <col min="4" max="4" width="16.6285714285714" customWidth="1"/>
-    <col min="5" max="5" width="15.8285714285714" customWidth="1"/>
-    <col min="6" max="6" width="18.952380952381" customWidth="1"/>
+    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.7666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.55" customWidth="1"/>
+    <col min="5" max="5" width="13.85" customWidth="1"/>
+    <col min="6" max="6" width="16.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="15.75" spans="2:2">
-      <c r="B4" s="1" t="s">
+    <row r="4" ht="19.5" spans="2:2">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="2:5">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:5">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="55">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="55">
         <v>200</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="56">
         <v>400</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="59">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="59">
         <v>124</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="60">
         <v>248</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="59">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="59">
         <v>134</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="60">
         <v>268</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="2:5">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="62">
         <v>4</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="62">
         <v>14</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="63">
         <v>56</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:5">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="65">
         <v>24</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="65">
         <v>4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="66">
         <v>96</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:5">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="68">
         <v>100</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="69">
         <v>200</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="2:5">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="68">
         <v>8</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="68">
         <v>9</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="69">
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="2:5">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="68">
         <v>1</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="68">
         <v>22</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="69">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="12.75" spans="2:5">
-      <c r="B15" s="26" t="s">
+    <row r="15" ht="13.5" spans="2:5">
+      <c r="B15" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72">
         <f>SUM(E7:E14)</f>
         <v>1362</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+    </row>
+    <row r="44" ht="19.5" spans="10:10">
+      <c r="J44" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="29"/>
-    </row>
-    <row r="21" ht="12.75" spans="2:4">
-      <c r="B21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" spans="2:4">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-    </row>
-    <row r="30" ht="12.75" spans="2:4">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-    </row>
-    <row r="44" ht="15.75" spans="10:10">
-      <c r="J44" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2167,46 +2089,46 @@
   <sheetPr/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="18.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="13.5714285714286" customWidth="1"/>
-    <col min="16" max="16" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:2">
-      <c r="A3" s="2">
+    <row r="1" ht="19.5" spans="2:2">
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -2214,17 +2136,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="2">
+    <row r="28" ht="16.5" spans="1:2">
+      <c r="A28" s="14">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -2237,4 +2159,660 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1"/>
+    <col min="7" max="7" width="29.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="19.5" spans="7:9">
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="7:9">
+      <c r="G6" s="13"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <f>(D37)</f>
+        <v>358</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8:E14" si="0">(C8*D8)</f>
+        <v>358</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="48"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>134</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>100</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21">
+        <v>9</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>22</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30">
+        <f>SUM(E8:E14)</f>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="2:9">
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>500</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" ref="E18:E24" si="1">(C18*D18)</f>
+        <v>500</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" ht="17.25" spans="2:5">
+      <c r="B19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <v>134</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4</v>
+      </c>
+      <c r="D20" s="21">
+        <v>14</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="21">
+        <v>12</v>
+      </c>
+      <c r="D21" s="21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="21">
+        <v>8</v>
+      </c>
+      <c r="D22" s="21">
+        <v>9</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>22</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>100</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38">
+        <f>SUM(E18:E24)</f>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>124</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>24</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>200</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45">
+        <f>SUM(D32:D35)</f>
+        <v>358</v>
+      </c>
+      <c r="E37" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="92.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Main Components with Price for 2 prototypes</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>https://circuitdigest.com/microcontroller-projects/interfacing-16x2-lcd-with-esp32-using-i2c</t>
+  </si>
+  <si>
+    <t>7-Segment Display Interfacing with Arduino UNO</t>
+  </si>
+  <si>
+    <t>https://www.electronicwings.com/arduino/7-segment-display-interfacing-with-arduino-uno</t>
+  </si>
+  <si>
+    <t>Serially Interfaced, 8-Digit, LED Display Drivers</t>
+  </si>
+  <si>
+    <t>https://www.maximintegrated.com/en/products/power/display-power-control/MAX7221.html</t>
   </si>
 </sst>
 </file>
@@ -178,10 +190,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -239,8 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,11 +280,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +304,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -284,16 +318,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,37 +335,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +349,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -368,12 +364,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -402,25 +414,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,43 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,102 +589,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,11 +985,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,6 +1005,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,32 +1039,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,174 +1067,172 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,9 +1293,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1320,9 +1329,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,12 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1914,162 +1914,162 @@
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="2:5">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:5">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="51">
         <v>2</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="51">
         <v>200</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <v>400</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="55">
         <v>2</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="55">
         <v>124</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="56">
         <v>248</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:5">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="55">
         <v>2</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="55">
         <v>134</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="56">
         <v>268</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1" spans="2:5">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="58">
         <v>4</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="58">
         <v>14</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="59">
         <v>56</v>
       </c>
     </row>
     <row r="11" ht="19" customHeight="1" spans="2:5">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="61">
         <v>24</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="61">
         <v>4</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="62">
         <v>96</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1" spans="2:5">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="64">
         <v>100</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="65">
         <v>200</v>
       </c>
     </row>
     <row r="13" ht="19" customHeight="1" spans="2:5">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="64">
         <v>8</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="64">
         <v>9</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="65">
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="2:5">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="64">
         <v>1</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="64">
         <v>22</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="65">
         <v>22</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:5">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68">
         <f>SUM(E7:E14)</f>
         <v>1362</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
     </row>
     <row r="44" ht="19.5" spans="10:10">
       <c r="J44" s="12" t="s">
@@ -2123,8 +2123,8 @@
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
@@ -2218,178 +2218,178 @@
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <f>(D37)</f>
         <v>358</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f t="shared" ref="E8:E14" si="0">(C8*D8)</f>
         <v>358</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="48"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>134</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>14</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>12</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>4</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>100</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>8</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>9</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>22</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="45" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29">
         <f>SUM(E8:E14)</f>
         <v>790</v>
       </c>
@@ -2401,27 +2401,27 @@
       <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="2:9">
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>500</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f t="shared" ref="E18:E24" si="1">(C18*D18)</f>
         <v>500</v>
       </c>
@@ -2429,121 +2429,121 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" ht="17.25" spans="2:5">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>134</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>4</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>14</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>12</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>4</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>8</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>9</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>1</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>1</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>100</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="29">
         <f>SUM(E18:E24)</f>
         <v>932</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="3"/>
@@ -2551,22 +2551,22 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
@@ -2623,15 +2623,15 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45">
+      <c r="C37" s="40"/>
+      <c r="D37" s="41">
         <f>SUM(D32:D35)</f>
         <v>358</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2645,18 +2645,18 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="92.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.3583333333333" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2667,12 +2667,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2727,84 +2727,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
